--- a/portfolios/sml_equity/strategy_entrances_exits/mean_reversion/STO_entrances.xlsx
+++ b/portfolios/sml_equity/strategy_entrances_exits/mean_reversion/STO_entrances.xlsx
@@ -2429,7 +2429,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N7">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O7">
         <v>22.91071702127658</v>
@@ -2486,7 +2486,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH7">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI7">
         <v>0.0164026268679168</v>
@@ -2859,7 +2859,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N9">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O9">
         <v>13.58350070921989</v>
@@ -2916,7 +2916,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH9">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI9">
         <v>0.01427200286253915</v>
@@ -3498,7 +3498,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N12">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O12">
         <v>20.19394113475186</v>
@@ -3555,7 +3555,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH12">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI12">
         <v>0.01696170815697175</v>
@@ -4355,7 +4355,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N16">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O16">
         <v>7.339502836879437</v>
@@ -4412,7 +4412,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH16">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI16">
         <v>0.008311602789950912</v>
@@ -4567,7 +4567,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N17">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O17">
         <v>12.89991276595738</v>
@@ -4624,7 +4624,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH17">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI17">
         <v>0.02024366692768478</v>
@@ -4782,7 +4782,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N18">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O18">
         <v>7.206549600000022</v>
@@ -4839,7 +4839,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH18">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI18">
         <v>0.02094967549230971</v>
@@ -5212,7 +5212,7 @@
         <v>939.22</v>
       </c>
       <c r="N20">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O20">
         <v>56.62421985815602</v>
@@ -5269,7 +5269,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH20">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI20">
         <v>0.03309901514444565</v>
@@ -5642,7 +5642,7 @@
         <v>939.22</v>
       </c>
       <c r="N22">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O22">
         <v>6.35354609929079</v>
@@ -5699,7 +5699,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH22">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI22">
         <v>0.02860757417807495</v>
@@ -6057,7 +6057,7 @@
         <v>939.22</v>
       </c>
       <c r="N24">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O24">
         <v>9.064860283687931</v>
@@ -6114,7 +6114,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH24">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI24">
         <v>0.01727124972527197</v>
@@ -6272,7 +6272,7 @@
         <v>939.22</v>
       </c>
       <c r="N25">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O25">
         <v>35.24966808510646</v>
@@ -6329,7 +6329,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH25">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI25">
         <v>0.01194186465927354</v>
@@ -7550,7 +7550,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N31">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O31">
         <v>23.59247446808504</v>
@@ -7607,7 +7607,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH31">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI31">
         <v>0.01709192076164608</v>
@@ -8195,7 +8195,7 @@
         <v>939.22</v>
       </c>
       <c r="N34">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O34">
         <v>6.677641843971647</v>
@@ -8252,7 +8252,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH34">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI34">
         <v>0.02079968930352272</v>
@@ -9052,7 +9052,7 @@
         <v>939.22</v>
       </c>
       <c r="N38">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O38">
         <v>3.036170212765948</v>
@@ -9109,7 +9109,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH38">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI38">
         <v>0.03180786941566097</v>
@@ -9267,7 +9267,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N39">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O39">
         <v>32.40629078014182</v>
@@ -9324,7 +9324,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH39">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI39">
         <v>0.01775298323310405</v>
@@ -9912,7 +9912,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N42">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O42">
         <v>16.09864822695039</v>
@@ -9969,7 +9969,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH42">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI42">
         <v>0.01626896099898658</v>
@@ -10127,7 +10127,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N43">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O43">
         <v>13.34046170212767</v>
@@ -10184,7 +10184,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH43">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI43">
         <v>0.01298242133493258</v>
@@ -10769,7 +10769,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N46">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O46">
         <v>7.307699290780168</v>
@@ -10826,7 +10826,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH46">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI46">
         <v>0.0172580463546312</v>
@@ -11811,7 +11811,7 @@
         <v>939.22</v>
       </c>
       <c r="N51">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O51">
         <v>13.45723404255323</v>
@@ -11868,7 +11868,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH51">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI51">
         <v>0.03364718905475982</v>
@@ -12671,7 +12671,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N55">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O55">
         <v>23.25944539007095</v>
@@ -12728,7 +12728,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH55">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI55">
         <v>0.007458103874353643</v>
@@ -13310,7 +13310,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N58">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O58">
         <v>8.286453900709221</v>
@@ -13367,7 +13367,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH58">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI58">
         <v>0.01590165064547967</v>
@@ -13525,7 +13525,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N59">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O59">
         <v>2.911729787234027</v>
@@ -13582,7 +13582,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH59">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI59">
         <v>0.01784203635560036</v>
@@ -14809,7 +14809,7 @@
         <v>939.22</v>
       </c>
       <c r="N65">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O65">
         <v>6.769576595744663</v>
@@ -14866,7 +14866,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH65">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI65">
         <v>0.01537367661293974</v>
@@ -15024,7 +15024,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N66">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O66">
         <v>17.49174680851063</v>
@@ -15081,7 +15081,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH66">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI66">
         <v>0.01913701088842278</v>
@@ -16096,7 +16096,7 @@
         <v>939.22</v>
       </c>
       <c r="N71">
-        <v>835.876819858159</v>
+        <v>835.8744843971659</v>
       </c>
       <c r="O71">
         <v>4.226349645390066</v>
@@ -16153,7 +16153,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH71">
-        <v>0.1236344610673346</v>
+        <v>0.1236376005392329</v>
       </c>
       <c r="AI71">
         <v>0.02116642414772154</v>
@@ -16947,7 +16947,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N75">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O75">
         <v>13.14070638297873</v>
@@ -17004,7 +17004,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH75">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI75">
         <v>0.007811425833287981</v>
@@ -17371,7 +17371,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N77">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O77">
         <v>20.40830709219857</v>
@@ -17428,7 +17428,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH77">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI77">
         <v>0.01435242249465607</v>
@@ -18434,7 +18434,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N82">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O82">
         <v>12.22206595744684</v>
@@ -18491,7 +18491,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH82">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI82">
         <v>0.0116481837022853</v>
@@ -19079,7 +19079,7 @@
         <v>5596.561800000006</v>
       </c>
       <c r="N85">
-        <v>4748.669606382969</v>
+        <v>4748.665339007082</v>
       </c>
       <c r="O85">
         <v>21.98711205673758</v>
@@ -19136,7 +19136,7 @@
         <v>0.09767670077435081</v>
       </c>
       <c r="AH85">
-        <v>0.1785536295212737</v>
+        <v>0.1785546886254599</v>
       </c>
       <c r="AI85">
         <v>0.0169161985250609</v>
@@ -21644,10 +21644,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M97">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N97">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O97">
         <v>3.289321428571442</v>
@@ -21704,7 +21704,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH97">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI97">
         <v>0.03461529655233496</v>
@@ -21865,10 +21865,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M98">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N98">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O98">
         <v>13.12014</v>
@@ -21925,7 +21925,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH98">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI98">
         <v>0.009013183653793824</v>
@@ -22743,10 +22743,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M102">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N102">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O102">
         <v>9.665844285714307</v>
@@ -22803,7 +22803,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH102">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI102">
         <v>0.01773924857940986</v>
@@ -23612,10 +23612,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M106">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N106">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O106">
         <v>17.52263361344533</v>
@@ -23672,7 +23672,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH106">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI106">
         <v>0.01204424576719346</v>
@@ -23833,10 +23833,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M107">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N107">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O107">
         <v>21.76330642857139</v>
@@ -23893,7 +23893,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH107">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI107">
         <v>0.02606397398031157</v>
@@ -24278,7 +24278,7 @@
         <v>933.76</v>
       </c>
       <c r="N109">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O109">
         <v>6.341642857142866</v>
@@ -24335,7 +24335,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH109">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI109">
         <v>0.03148927125010548</v>
@@ -24496,7 +24496,7 @@
         <v>933.76</v>
       </c>
       <c r="N110">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O110">
         <v>56.5645357142857</v>
@@ -24553,7 +24553,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH110">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI110">
         <v>0.03524744002044663</v>
@@ -24935,10 +24935,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M112">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N112">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O112">
         <v>7.32799928571429</v>
@@ -24995,7 +24995,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH112">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI112">
         <v>0.00959031091148182</v>
@@ -25801,10 +25801,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M116">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N116">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O116">
         <v>13.5726685714286</v>
@@ -25861,7 +25861,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH116">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI116">
         <v>0.01377227782086468</v>
@@ -26022,10 +26022,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M117">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N117">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O117">
         <v>22.89386499999999</v>
@@ -26082,7 +26082,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH117">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI117">
         <v>0.01850111854925377</v>
@@ -29107,10 +29107,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M131">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N131">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O131">
         <v>17.47804499999999</v>
@@ -29167,7 +29167,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH131">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI131">
         <v>0.0192797189952211</v>
@@ -29331,7 +29331,7 @@
         <v>933.76</v>
       </c>
       <c r="N132">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O132">
         <v>6.761502142857125</v>
@@ -29388,7 +29388,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH132">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI132">
         <v>0.01596598261800344</v>
@@ -30203,7 +30203,7 @@
         <v>933.76</v>
       </c>
       <c r="N136">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O136">
         <v>10.92245285714288</v>
@@ -30260,7 +30260,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH136">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI136">
         <v>0.01678495548315953</v>
@@ -30851,10 +30851,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M139">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N139">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O139">
         <v>2.903242142857127</v>
@@ -30911,7 +30911,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH139">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI139">
         <v>0.0198328172127214</v>
@@ -31072,10 +31072,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M140">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N140">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O140">
         <v>8.279500000000001</v>
@@ -31132,7 +31132,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH140">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI140">
         <v>0.01683811799585378</v>
@@ -32177,10 +32177,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M145">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N145">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O145">
         <v>23.23987000000003</v>
@@ -32237,7 +32237,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH145">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI145">
         <v>0.008016055605097107</v>
@@ -33058,7 +33058,7 @@
         <v>933.76</v>
       </c>
       <c r="N149">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O149">
         <v>13.44900000000004</v>
@@ -33115,7 +33115,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH149">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI149">
         <v>0.03736344499799536</v>
@@ -33500,7 +33500,7 @@
         <v>933.76</v>
       </c>
       <c r="N151">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O151">
         <v>4.218394999999995</v>
@@ -33557,7 +33557,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH151">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI151">
         <v>0.02208293163578868</v>
@@ -33942,7 +33942,7 @@
         <v>933.76</v>
       </c>
       <c r="N153">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O153">
         <v>9.063537857142846</v>
@@ -33999,7 +33999,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH153">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI153">
         <v>0.01824698633706245</v>
@@ -35038,10 +35038,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M158">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N158">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O158">
         <v>23.57234928571422</v>
@@ -35098,7 +35098,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH158">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI158">
         <v>0.01703142871765024</v>
@@ -35704,7 +35704,7 @@
         <v>933.76</v>
       </c>
       <c r="N161">
-        <v>835.1386542857173</v>
+        <v>835.13630214286</v>
       </c>
       <c r="O161">
         <v>6.672696428571444</v>
@@ -35761,7 +35761,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH161">
-        <v>0.1180897868972814</v>
+        <v>0.1180929359723477</v>
       </c>
       <c r="AI161">
         <v>0.02234760226813283</v>
@@ -36361,10 +36361,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M164">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N164">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O164">
         <v>32.37733571428569</v>
@@ -36421,7 +36421,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH164">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI164">
         <v>0.01869093828229065</v>
@@ -36582,10 +36582,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M165">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N165">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O165">
         <v>27.51569642857133</v>
@@ -36642,7 +36642,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH165">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI165">
         <v>0.02015344554705829</v>
@@ -37245,10 +37245,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M168">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N168">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O168">
         <v>16.08178142857147</v>
@@ -37305,7 +37305,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH168">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI168">
         <v>0.01761389627261064</v>
@@ -37466,10 +37466,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M169">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N169">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O169">
         <v>13.32553642857144</v>
@@ -37526,7 +37526,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH169">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI169">
         <v>0.0136943698812204</v>
@@ -37684,10 +37684,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M170">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N170">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O170">
         <v>33.1003814285715</v>
@@ -37744,7 +37744,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH170">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI170">
         <v>0.01466774777799205</v>
@@ -38777,10 +38777,10 @@
         <v>335.9300164285713</v>
       </c>
       <c r="M175">
-        <v>5619.274999999998</v>
+        <v>5619.074999999998</v>
       </c>
       <c r="N175">
-        <v>4742.613233571418</v>
+        <v>4742.608935714276</v>
       </c>
       <c r="O175">
         <v>7.306397142857169</v>
@@ -38837,7 +38837,7 @@
         <v>0.09418623529926887</v>
       </c>
       <c r="AH175">
-        <v>0.1848478303528898</v>
+        <v>0.1848067332065867</v>
       </c>
       <c r="AI175">
         <v>0.01991313040918985</v>
@@ -38989,10 +38989,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M176">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N176">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O176">
         <v>22.8762669064748</v>
@@ -39049,7 +39049,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH176">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI176">
         <v>0.0208029634006257</v>
@@ -39425,10 +39425,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M178">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N178">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O178">
         <v>13.56355107913672</v>
@@ -39485,7 +39485,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH178">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI178">
         <v>0.01568402902096873</v>
@@ -39867,10 +39867,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M180">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N180">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O180">
         <v>10.3892086330935</v>
@@ -39927,7 +39927,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH180">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI180">
         <v>0.0184666736045403</v>
@@ -40972,10 +40972,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M185">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N185">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O185">
         <v>2.392374100719419</v>
@@ -41032,7 +41032,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH185">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI185">
         <v>0.01910794237126496</v>
@@ -41841,10 +41841,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M189">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N189">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O189">
         <v>7.316330215827342</v>
@@ -41901,7 +41901,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH189">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI189">
         <v>0.01021104250470123</v>
@@ -42280,10 +42280,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M191">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N191">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O191">
         <v>2.412056115108273</v>
@@ -42340,7 +42340,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH191">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI191">
         <v>0.03093958788030711</v>
@@ -43161,10 +43161,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M195">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N195">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O195">
         <v>6.328992805755405</v>
@@ -43221,7 +43221,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH195">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI195">
         <v>0.02959309252093852</v>
@@ -43600,10 +43600,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M197">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N197">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O197">
         <v>35.18405179856124</v>
@@ -43660,7 +43660,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH197">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI197">
         <v>0.01397746258624203</v>
@@ -43821,10 +43821,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M198">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N198">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O198">
         <v>9.062915827338117</v>
@@ -43881,7 +43881,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH198">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI198">
         <v>0.02020890646668658</v>
@@ -44042,10 +44042,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M199">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N199">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O199">
         <v>16.06366474820148</v>
@@ -44102,7 +44102,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH199">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI199">
         <v>0.01957569006395855</v>
@@ -44478,10 +44478,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M201">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N201">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O201">
         <v>27.49530575539558</v>
@@ -44538,7 +44538,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH201">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI201">
         <v>0.017085366995169</v>
@@ -44914,10 +44914,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M203">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N203">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O203">
         <v>23.54855323741001</v>
@@ -44974,7 +44974,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH203">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI203">
         <v>0.01619903418909024</v>
@@ -45135,10 +45135,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M204">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N204">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O204">
         <v>13.07</v>
@@ -45195,7 +45195,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH204">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI204">
         <v>0.02764894338667259</v>
@@ -45792,10 +45792,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M207">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N207">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O207">
         <v>6.667104316546778</v>
@@ -45852,7 +45852,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH207">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI207">
         <v>0.02132330648447965</v>
@@ -46231,10 +46231,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M209">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N209">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O209">
         <v>2.921922302158268</v>
@@ -46291,7 +46291,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH209">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI209">
         <v>0.02218921948655738</v>
@@ -47548,10 +47548,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M215">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N215">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O215">
         <v>33.08340575539575</v>
@@ -47608,7 +47608,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH215">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI215">
         <v>0.01387129455899595</v>
@@ -48644,10 +48644,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M220">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N220">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O220">
         <v>5.45165467625897</v>
@@ -48704,7 +48704,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH220">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI220">
         <v>0.01916057529072679</v>
@@ -49743,10 +49743,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M225">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N225">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O225">
         <v>23.21929352517989</v>
@@ -49803,7 +49803,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH225">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI225">
         <v>0.008657578952626831</v>
@@ -50839,10 +50839,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M230">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N230">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O230">
         <v>8.273093525179856</v>
@@ -50899,7 +50899,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH230">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI230">
         <v>0.01599836014357369</v>
@@ -51487,10 +51487,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M233">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N233">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O233">
         <v>10.90067194244607</v>
@@ -51547,7 +51547,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH233">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI233">
         <v>0.0170158958967595</v>
@@ -51705,10 +51705,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M234">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N234">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O234">
         <v>6.407302877697814</v>
@@ -51765,7 +51765,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH234">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI234">
         <v>0.02322137233467206</v>
@@ -53022,10 +53022,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M240">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N240">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O240">
         <v>6.753958992805738</v>
@@ -53082,7 +53082,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH240">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI240">
         <v>0.01802730392923573</v>
@@ -53243,10 +53243,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M241">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N241">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O241">
         <v>17.4615561151079</v>
@@ -53303,7 +53303,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH241">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI241">
         <v>0.01808998545402635</v>
@@ -53903,10 +53903,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M244">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N244">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O244">
         <v>2.624316546762588</v>
@@ -53963,7 +53963,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH244">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI244">
         <v>0.02513658471729334</v>
@@ -55450,10 +55450,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M251">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N251">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O251">
         <v>3.279172661870517</v>
@@ -55510,7 +55510,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH251">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI251">
         <v>0.03396306437177553</v>
@@ -56113,10 +56113,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M254">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N254">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O254">
         <v>27.21796690647479</v>
@@ -56173,7 +56173,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH254">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI254">
         <v>0.01756467590075298</v>
@@ -56334,10 +56334,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M255">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N255">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O255">
         <v>9.662001438848941</v>
@@ -56394,7 +56394,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH255">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI255">
         <v>0.02031768191016814</v>
@@ -56555,10 +56555,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M256">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N256">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O256">
         <v>9.748920863309353</v>
@@ -56615,7 +56615,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH256">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI256">
         <v>0.02357846907191676</v>
@@ -57433,10 +57433,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M260">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N260">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O260">
         <v>3.146762589928106</v>
@@ -57493,7 +57493,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH260">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI260">
         <v>0.02137529241658386</v>
@@ -58096,10 +58096,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M263">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N263">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O263">
         <v>8.078633093525186</v>
@@ -58156,7 +58156,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH263">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI263">
         <v>0.01674338464826633</v>
@@ -58980,10 +58980,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M267">
-        <v>924.7499999999999</v>
+        <v>924.5875</v>
       </c>
       <c r="N267">
-        <v>834.4291482014419</v>
+        <v>834.4267791366935</v>
       </c>
       <c r="O267">
         <v>4.210901438848916</v>
@@ -59040,7 +59040,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH267">
-        <v>0.1082426854254058</v>
+        <v>0.108051087426254</v>
       </c>
       <c r="AI267">
         <v>0.02489310667312082</v>
@@ -59422,10 +59422,10 @@
         <v>335.7023906474819</v>
       </c>
       <c r="M269">
-        <v>5553.370000000003</v>
+        <v>5553.169100000002</v>
       </c>
       <c r="N269">
-        <v>4736.306314388478</v>
+        <v>4736.303424460421</v>
       </c>
       <c r="O269">
         <v>15.2069201438849</v>
@@ -59482,7 +59482,7 @@
         <v>0.09394514376764</v>
       </c>
       <c r="AH269">
-        <v>0.1725107354499766</v>
+        <v>0.1724690338294027</v>
       </c>
       <c r="AI269">
         <v>0.01903022826647675</v>
@@ -60739,10 +60739,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M275">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N275">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O275">
         <v>56.39535971223021</v>
@@ -60799,7 +60799,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH275">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI275">
         <v>0.03469051806032562</v>
@@ -60960,10 +60960,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M276">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N276">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O276">
         <v>4.570016546762559</v>
@@ -61020,7 +61020,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH276">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI276">
         <v>0.03018835829914376</v>
@@ -62053,10 +62053,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M281">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N281">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O281">
         <v>7.30925611510794</v>
@@ -62113,7 +62113,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH281">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI281">
         <v>0.02104367890860509</v>
@@ -62265,10 +62265,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M282">
-        <v>929.8662000000002</v>
+        <v>929.6994000000001</v>
       </c>
       <c r="N282">
-        <v>834.2988669064779</v>
+        <v>834.2976669064777</v>
       </c>
       <c r="O282">
         <v>5.441510791366884</v>
@@ -62325,7 +62325,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH282">
-        <v>0.1145480796922083</v>
+        <v>0.1143497541438248</v>
       </c>
       <c r="AI282">
         <v>0.02087758687391553</v>
@@ -65568,10 +65568,10 @@
         <v>335.3289280575538</v>
       </c>
       <c r="M297">
-        <v>5587.433</v>
+        <v>5587.232199999999</v>
       </c>
       <c r="N297">
-        <v>4731.92310503596</v>
+        <v>4731.921660431644</v>
       </c>
       <c r="O297">
         <v>6.407776258992778</v>
@@ -65628,7 +65628,7 @@
         <v>0.09701242338645703</v>
       </c>
       <c r="AH297">
-        <v>0.1807953924808206</v>
+        <v>0.1807533177737211</v>
       </c>
       <c r="AI297">
         <v>0.0256790639536071</v>
